--- a/Packages/cn.etetet.item/Luban/Config/Datas/Item.xlsx
+++ b/Packages/cn.etetet.item/Luban/Config/Datas/Item.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11102"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.item/Luban/Config/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571648C4-6957-D548-8ACA-C22AAF71B335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089FB369-972D-9947-B14B-6EC34335CE20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8320" yWindow="4620" windowWidth="38400" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="QuestConfig" sheetId="1" r:id="rId1"/>
+    <sheet name="ItemConfig" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -83,64 +83,65 @@
     <t>Level</t>
   </si>
   <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>最大堆叠</t>
+  </si>
+  <si>
+    <t>图标</t>
+  </si>
+  <si>
+    <t>品质</t>
+  </si>
+  <si>
+    <t>卖价</t>
+  </si>
+  <si>
+    <t>买价</t>
+  </si>
+  <si>
+    <t>使用类型</t>
+  </si>
+  <si>
+    <t>等级</t>
+  </si>
+  <si>
+    <t>生命药水</t>
+  </si>
+  <si>
+    <t>恢复100点生命值</t>
+  </si>
+  <si>
+    <t>Items/Potion_HP</t>
+  </si>
+  <si>
+    <t>魔法药水</t>
+  </si>
+  <si>
+    <t>恢复100点魔法值</t>
+  </si>
+  <si>
+    <t>Items/Potion_MP</t>
+  </si>
+  <si>
+    <t>铁矿石</t>
+  </si>
+  <si>
+    <t>锻造材料</t>
+  </si>
+  <si>
+    <t>Items/Ore_Iron</t>
+  </si>
+  <si>
     <t>ID</t>
-  </si>
-  <si>
-    <t>名称</t>
-  </si>
-  <si>
-    <t>描述</t>
-  </si>
-  <si>
-    <t>类型</t>
-  </si>
-  <si>
-    <t>最大堆叠</t>
-  </si>
-  <si>
-    <t>图标</t>
-  </si>
-  <si>
-    <t>品质</t>
-  </si>
-  <si>
-    <t>卖价</t>
-  </si>
-  <si>
-    <t>买价</t>
-  </si>
-  <si>
-    <t>使用类型</t>
-  </si>
-  <si>
-    <t>等级</t>
-  </si>
-  <si>
-    <t>生命药水</t>
-  </si>
-  <si>
-    <t>恢复100点生命值</t>
-  </si>
-  <si>
-    <t>Items/Potion_HP</t>
-  </si>
-  <si>
-    <t>魔法药水</t>
-  </si>
-  <si>
-    <t>恢复100点魔法值</t>
-  </si>
-  <si>
-    <t>Items/Potion_MP</t>
-  </si>
-  <si>
-    <t>铁矿石</t>
-  </si>
-  <si>
-    <t>锻造材料</t>
-  </si>
-  <si>
-    <t>Items/Ore_Iron</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -494,7 +495,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -603,37 +604,37 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -644,10 +645,10 @@
         <v>10001</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="E4" s="4">
         <v>2</v>
@@ -656,7 +657,7 @@
         <v>99</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H4" s="4">
         <v>1</v>
@@ -682,10 +683,10 @@
         <v>10002</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="E5" s="4">
         <v>2</v>
@@ -694,7 +695,7 @@
         <v>99</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H5" s="4">
         <v>1</v>
@@ -720,10 +721,10 @@
         <v>10003</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="E6" s="4">
         <v>3</v>
@@ -732,7 +733,7 @@
         <v>999</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H6" s="4">
         <v>0</v>

--- a/Packages/cn.etetet.item/Luban/Config/Datas/Item.xlsx
+++ b/Packages/cn.etetet.item/Luban/Config/Datas/Item.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.item/Luban/Config/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089FB369-972D-9947-B14B-6EC34335CE20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDC1534-45C1-5340-9954-7F42F15AA305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11540" yWindow="4480" windowWidth="38400" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemConfig" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
   <si>
     <t>##var</t>
   </si>
@@ -71,12 +71,6 @@
     <t>Quality</t>
   </si>
   <si>
-    <t>SellPrice</t>
-  </si>
-  <si>
-    <t>BuyPrice</t>
-  </si>
-  <si>
     <t>UseType</t>
   </si>
   <si>
@@ -101,12 +95,6 @@
     <t>品质</t>
   </si>
   <si>
-    <t>卖价</t>
-  </si>
-  <si>
-    <t>买价</t>
-  </si>
-  <si>
     <t>使用类型</t>
   </si>
   <si>
@@ -141,6 +129,95 @@
   </si>
   <si>
     <t>ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手之剑</t>
+  </si>
+  <si>
+    <t>适合初学者使用的铁剑</t>
+  </si>
+  <si>
+    <t>Items/Equipment/Weapon_Sword_01</t>
+  </si>
+  <si>
+    <t>皮革头盔</t>
+  </si>
+  <si>
+    <t>简单的皮革头盔</t>
+  </si>
+  <si>
+    <t>Items/Equipment/Helmet_Leather_01</t>
+  </si>
+  <si>
+    <t>铁制胸甲</t>
+  </si>
+  <si>
+    <t>坚固的铁制护甲</t>
+  </si>
+  <si>
+    <t>Items/Equipment/Armor_Iron_01</t>
+  </si>
+  <si>
+    <t>布袍</t>
+  </si>
+  <si>
+    <t>法师的入门长袍</t>
+  </si>
+  <si>
+    <t>Items/Equipment/Robe_Cloth_01</t>
+  </si>
+  <si>
+    <t>皮革护腿</t>
+  </si>
+  <si>
+    <t>适合游侠的护腿</t>
+  </si>
+  <si>
+    <t>Items/Equipment/Pants_Leather_01</t>
+  </si>
+  <si>
+    <t>铁靴</t>
+  </si>
+  <si>
+    <t>厚重的战士之靴</t>
+  </si>
+  <si>
+    <t>Items/Equipment/Boots_Iron_01</t>
+  </si>
+  <si>
+    <t>精灵之弓</t>
+  </si>
+  <si>
+    <t>轻盈的远程武器</t>
+  </si>
+  <si>
+    <t>Items/Equipment/Weapon_Bow_01</t>
+  </si>
+  <si>
+    <t>魔法项链</t>
+  </si>
+  <si>
+    <t>增强魔法的项链</t>
+  </si>
+  <si>
+    <t>Items/Equipment/Necklace_Magic_01</t>
+  </si>
+  <si>
+    <t>力量戒指</t>
+  </si>
+  <si>
+    <t>增加力量的戒指</t>
+  </si>
+  <si>
+    <t>Items/Equipment/Ring_Strength_01</t>
+  </si>
+  <si>
+    <t>##group</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -212,10 +289,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -492,33 +569,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="I1" sqref="I1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.1640625" customWidth="1"/>
-    <col min="2" max="2" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.5" customWidth="1"/>
     <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5" customWidth="1"/>
-    <col min="14" max="14" width="13.1640625" customWidth="1"/>
-    <col min="15" max="15" width="19.83203125" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5" customWidth="1"/>
+    <col min="12" max="12" width="13.1640625" customWidth="1"/>
+    <col min="13" max="13" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -548,18 +623,12 @@
       <c r="J1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="4" t="s">
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -589,185 +658,424 @@
       <c r="J2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="4" t="s">
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="B5" s="3">
+        <v>10001</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>99</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="B6" s="3">
+        <v>10002</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>99</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="B7" s="3">
+        <v>10003</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3</v>
+      </c>
+      <c r="F7" s="3">
+        <v>999</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="B8" s="3">
+        <v>10004</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="4">
+        <v>4</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>2</v>
+      </c>
+      <c r="J8" s="4">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="B9" s="3">
+        <v>10005</v>
+      </c>
+      <c r="C9" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="B4" s="4">
-        <v>10001</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="4">
-        <v>2</v>
-      </c>
-      <c r="F4" s="4">
-        <v>99</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="4">
-        <v>1</v>
-      </c>
-      <c r="I4" s="4">
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="4">
+        <v>4</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>2</v>
+      </c>
+      <c r="J9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="B10" s="3">
+        <v>10006</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="4">
+        <v>4</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4">
+        <v>2</v>
+      </c>
+      <c r="J10" s="4">
         <v>5</v>
       </c>
-      <c r="J4" s="4">
+    </row>
+    <row r="11" spans="1:13">
+      <c r="B11" s="3">
+        <v>10007</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="4">
+        <v>4</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>2</v>
+      </c>
+      <c r="J11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="B12" s="3">
+        <v>10008</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="4">
+        <v>4</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>2</v>
+      </c>
+      <c r="J12" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="B13" s="3">
+        <v>10009</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="4">
+        <v>4</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1</v>
+      </c>
+      <c r="I13" s="4">
+        <v>2</v>
+      </c>
+      <c r="J13" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="B14" s="3">
+        <v>10010</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="4">
+        <v>4</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1</v>
+      </c>
+      <c r="I14" s="4">
+        <v>2</v>
+      </c>
+      <c r="J14" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="B15" s="3">
+        <v>10011</v>
+      </c>
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="4">
+        <v>4</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="4">
+        <v>2</v>
+      </c>
+      <c r="I15" s="4">
+        <v>2</v>
+      </c>
+      <c r="J15" s="4">
         <v>10</v>
       </c>
-      <c r="K4" s="4">
-        <v>1</v>
-      </c>
-      <c r="L4" s="4">
-        <v>1</v>
-      </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="B5" s="4">
-        <v>10002</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="4">
-        <v>2</v>
-      </c>
-      <c r="F5" s="4">
-        <v>99</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="4">
-        <v>1</v>
-      </c>
-      <c r="I5" s="4">
-        <v>5</v>
-      </c>
-      <c r="J5" s="4">
-        <v>10</v>
-      </c>
-      <c r="K5" s="4">
-        <v>1</v>
-      </c>
-      <c r="L5" s="4">
-        <v>1</v>
-      </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="B6" s="4">
-        <v>10003</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="4">
-        <v>3</v>
-      </c>
-      <c r="F6" s="4">
-        <v>999</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
-        <v>1</v>
-      </c>
-      <c r="J6" s="4">
-        <v>2</v>
-      </c>
-      <c r="K6" s="4">
-        <v>0</v>
-      </c>
-      <c r="L6" s="4">
-        <v>1</v>
-      </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="B16" s="3">
+        <v>10012</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="4">
+        <v>4</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4">
+        <v>2</v>
+      </c>
+      <c r="J16" s="4">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
